--- a/Base_de_Dados/Jogos_do_Dia_Betfair/Jogos_do_Dia_Betfair_Back_Lay_2024-02-19.xlsx
+++ b/Base_de_Dados/Jogos_do_Dia_Betfair/Jogos_do_Dia_Betfair_Back_Lay_2024-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP1"/>
+  <dimension ref="A1:DP18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,6874 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Univ Catolica (Chile)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>990</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>990</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>32984284</t>
+        </is>
+      </c>
+      <c r="CY2" t="n">
+        <v>5271439</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>7029037</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>1.224268967</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>1.224268970</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>1.224268972</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>1.224268965</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>1.224268971</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>1.224269050</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>1.224269021</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>1.224269051</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>1.224269028</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>1.224268975</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>1.224268973</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>1.224268966</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>1.224268964</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>1.224269121</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>1.224268976</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mexican Women's Matches</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Club Tijuana (W)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Queretaro (W)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>990</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>990</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>33021228</t>
+        </is>
+      </c>
+      <c r="CY3" t="n">
+        <v>13968899</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>16652588</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>1.224865810</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>1.224865813</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>1.224865815</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>1.224865808</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>1.224865814</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>1.224865858</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>1.224865855</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>1.224865859</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>1.224865856</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>1.224865818</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>1.224865816</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>1.224865809</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>1.224865807</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>1.224865894</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>1.224865819</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Turkish 1 Lig</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>980</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>46</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>38</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>24</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>16</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>22</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>55</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>42</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>60</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>130</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>38</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>32</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>33016442</t>
+        </is>
+      </c>
+      <c r="CY4" t="n">
+        <v>50350</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>4985299</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>1.224792467</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>1.224792470</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>1.224792472</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>1.224792465</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>1.224792471</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>1.224792515</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>1.224792512</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>1.224792516</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>1.224792513</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>1.224792475</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>1.224792473</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>1.224792466</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>1.224792464</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>1.224792551</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>1.224792476</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thai League 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Khonkaen United</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>990</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>33027883</t>
+        </is>
+      </c>
+      <c r="CY5" t="n">
+        <v>11303752</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>9306470</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>1.224947616</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>1.224947619</t>
+        </is>
+      </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>1.224947621</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>1.224947614</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>1.224947620</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>1.224947664</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>1.224947661</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>1.224947665</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>1.224947662</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>1.224947624</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>1.224947622</t>
+        </is>
+      </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>1.224947615</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>1.224947613</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>1.224947700</t>
+        </is>
+      </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>1.224947625</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Greek Super League 2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Iraklis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I6" t="n">
+        <v>990</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>980</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>33022258</t>
+        </is>
+      </c>
+      <c r="CY6" t="n">
+        <v>14076</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>10490364</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>1.224879266</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>1.224879269</t>
+        </is>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>1.224879271</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>1.224879264</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>1.224879270</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>1.224879314</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>1.224879311</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>1.224879315</t>
+        </is>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>1.224879312</t>
+        </is>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>1.224879274</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>1.224879272</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>1.224879265</t>
+        </is>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>1.224879263</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>1.224879350</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>1.224879275</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Future FC</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>36</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>24</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>34</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>40</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>42</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>33024961</t>
+        </is>
+      </c>
+      <c r="CY7" t="n">
+        <v>41860831</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>6754306</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>1.224912336</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>1.224912339</t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>1.224912341</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>1.224912334</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>1.224912340</t>
+        </is>
+      </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>1.224912384</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>1.224912381</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>1.224912385</t>
+        </is>
+      </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>1.224912382</t>
+        </is>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>1.224912344</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>1.224912342</t>
+        </is>
+      </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>1.224912335</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>1.224912333</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>1.224912420</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>1.224912345</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Greek Super League 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Olympiacos B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Egaleo</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>33017215</t>
+        </is>
+      </c>
+      <c r="CY8" t="n">
+        <v>42000597</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>183123</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>1.224803328</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>1.224803331</t>
+        </is>
+      </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>1.224803333</t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>1.224803326</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>1.224803332</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>1.224803376</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>1.224803373</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>1.224803377</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>1.224803374</t>
+        </is>
+      </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>1.224803336</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>1.224803334</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>1.224803327</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>1.224803325</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>1.224803412</t>
+        </is>
+      </c>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>1.224803337</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>980</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>980</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>980</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>980</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>980</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>980</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>980</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>980</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX9" t="inlineStr">
+        <is>
+          <t>32896499</t>
+        </is>
+      </c>
+      <c r="CY9" t="n">
+        <v>5112599</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>427650</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>1.222892030</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>1.222892033</t>
+        </is>
+      </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>1.222892035</t>
+        </is>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>1.222892028</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>1.222892034</t>
+        </is>
+      </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>1.222892078</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>1.222892075</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>1.222892079</t>
+        </is>
+      </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>1.222892076</t>
+        </is>
+      </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>1.222892038</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>1.222892036</t>
+        </is>
+      </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>1.222892029</t>
+        </is>
+      </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>1.222892027</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>1.222892114</t>
+        </is>
+      </c>
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>1.222892039</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ACS Sepsi OSK</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>30</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>15</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>30</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>32998059</t>
+        </is>
+      </c>
+      <c r="CY10" t="n">
+        <v>8916863</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>1556985</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>1.224483023</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>1.224483026</t>
+        </is>
+      </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>1.224483028</t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>1.224483021</t>
+        </is>
+      </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>1.224483027</t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>1.224483071</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>1.224483068</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>1.224483072</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>1.224483069</t>
+        </is>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>1.224483031</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>1.224483029</t>
+        </is>
+      </c>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>1.224483022</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>1.224483020</t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>1.224483107</t>
+        </is>
+      </c>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>1.224483032</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Greek Super League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>110</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>38</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>65</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>24</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>46</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>30</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>28</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>29</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>50</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>85</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>150</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>70</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX11" t="inlineStr">
+        <is>
+          <t>32997390</t>
+        </is>
+      </c>
+      <c r="CY11" t="n">
+        <v>728087</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>1210411</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>1.224469850</t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>1.224469853</t>
+        </is>
+      </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t>1.224469855</t>
+        </is>
+      </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>1.224469848</t>
+        </is>
+      </c>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>1.224469854</t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>1.224469898</t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>1.224469895</t>
+        </is>
+      </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>1.224469899</t>
+        </is>
+      </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>1.224469896</t>
+        </is>
+      </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>1.224469858</t>
+        </is>
+      </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>1.224469856</t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>1.224469849</t>
+        </is>
+      </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>1.224469847</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>1.224469934</t>
+        </is>
+      </c>
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t>1.224469859</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Serbian Super League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FK Napredak</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>980</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>33022081</t>
+        </is>
+      </c>
+      <c r="CY12" t="n">
+        <v>2020583</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>2531444</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB12" t="inlineStr">
+        <is>
+          <t>1.224879814</t>
+        </is>
+      </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>1.224879817</t>
+        </is>
+      </c>
+      <c r="DD12" t="inlineStr">
+        <is>
+          <t>1.224879819</t>
+        </is>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>1.224879812</t>
+        </is>
+      </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>1.224879818</t>
+        </is>
+      </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>1.224879862</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>1.224879859</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>1.224879863</t>
+        </is>
+      </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>1.224879860</t>
+        </is>
+      </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>1.224879822</t>
+        </is>
+      </c>
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>1.224879820</t>
+        </is>
+      </c>
+      <c r="DM12" t="inlineStr">
+        <is>
+          <t>1.224879813</t>
+        </is>
+      </c>
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>1.224879811</t>
+        </is>
+      </c>
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>1.224879898</t>
+        </is>
+      </c>
+      <c r="DP12" t="inlineStr">
+        <is>
+          <t>1.224879823</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Greek Super League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>22</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>32</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>65</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>14</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>44</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>23</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>55</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>80</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>27</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>27</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>36</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>50</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>11</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>75</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>29</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>32997364</t>
+        </is>
+      </c>
+      <c r="CY13" t="n">
+        <v>1300930</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>2126382</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>1.224469447</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>1.224469450</t>
+        </is>
+      </c>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>1.224469452</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>1.224469445</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>1.224469451</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>1.224469495</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>1.224469492</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>1.224469496</t>
+        </is>
+      </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>1.224469493</t>
+        </is>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>1.224469455</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>1.224469453</t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>1.224469446</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>1.224469444</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>1.224469531</t>
+        </is>
+      </c>
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>1.224469456</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Turkish Super League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>20</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>46</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>110</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>200</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>22</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>75</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>100</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>23</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>70</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>95</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>29</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>34</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>85</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>130</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>65</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>110</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>33015090</t>
+        </is>
+      </c>
+      <c r="CY14" t="n">
+        <v>232068</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>482032</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB14" t="inlineStr">
+        <is>
+          <t>1.224766193</t>
+        </is>
+      </c>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>1.224766196</t>
+        </is>
+      </c>
+      <c r="DD14" t="inlineStr">
+        <is>
+          <t>1.224766198</t>
+        </is>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>1.224766191</t>
+        </is>
+      </c>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>1.224766197</t>
+        </is>
+      </c>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>1.224766207</t>
+        </is>
+      </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>1.224766203</t>
+        </is>
+      </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>1.224766149</t>
+        </is>
+      </c>
+      <c r="DJ14" t="inlineStr">
+        <is>
+          <t>1.224766204</t>
+        </is>
+      </c>
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>1.224766201</t>
+        </is>
+      </c>
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>1.224766199</t>
+        </is>
+      </c>
+      <c r="DM14" t="inlineStr">
+        <is>
+          <t>1.224766189</t>
+        </is>
+      </c>
+      <c r="DN14" t="inlineStr">
+        <is>
+          <t>1.224766190</t>
+        </is>
+      </c>
+      <c r="DO14" t="inlineStr">
+        <is>
+          <t>1.224766192</t>
+        </is>
+      </c>
+      <c r="DP14" t="inlineStr">
+        <is>
+          <t>1.224766202</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Turkish Super League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>15</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>36</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>130</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>55</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>65</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>19</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>55</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>65</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>18</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>17</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>28</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>32</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>80</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>46</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>65</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>920</v>
+      </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>33015138</t>
+        </is>
+      </c>
+      <c r="CY15" t="n">
+        <v>10071088</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>508789</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB15" t="inlineStr">
+        <is>
+          <t>1.224766085</t>
+        </is>
+      </c>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>1.224766088</t>
+        </is>
+      </c>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>1.224766090</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>1.224766083</t>
+        </is>
+      </c>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>1.224766089</t>
+        </is>
+      </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>1.224766099</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>1.224766095</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>1.224766041</t>
+        </is>
+      </c>
+      <c r="DJ15" t="inlineStr">
+        <is>
+          <t>1.224766096</t>
+        </is>
+      </c>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>1.224766093</t>
+        </is>
+      </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>1.224766091</t>
+        </is>
+      </c>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>1.224766081</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>1.224766082</t>
+        </is>
+      </c>
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>1.224766084</t>
+        </is>
+      </c>
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>1.224766094</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GKS Katowice</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LKP Motor Lublin</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>970</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>36</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>980</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>36</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>32</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>25</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>38</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>85</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>980</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX16" t="inlineStr">
+        <is>
+          <t>33011130</t>
+        </is>
+      </c>
+      <c r="CY16" t="n">
+        <v>3351396</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>6635878</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB16" t="inlineStr">
+        <is>
+          <t>1.224691231</t>
+        </is>
+      </c>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>1.224691234</t>
+        </is>
+      </c>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>1.224691236</t>
+        </is>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>1.224691229</t>
+        </is>
+      </c>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>1.224691235</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>1.224691279</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>1.224691276</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>1.224691280</t>
+        </is>
+      </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>1.224691277</t>
+        </is>
+      </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>1.224691239</t>
+        </is>
+      </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>1.224691237</t>
+        </is>
+      </c>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>1.224691230</t>
+        </is>
+      </c>
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>1.224691228</t>
+        </is>
+      </c>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>1.224691315</t>
+        </is>
+      </c>
+      <c r="DP16" t="inlineStr">
+        <is>
+          <t>1.224691240</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Swedish Cup</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Djurgardens</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Skovde Aik</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>60</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>32983363</t>
+        </is>
+      </c>
+      <c r="CY17" t="n">
+        <v>232104</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>14112862</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB17" t="inlineStr">
+        <is>
+          <t>1.224252397</t>
+        </is>
+      </c>
+      <c r="DC17" t="inlineStr">
+        <is>
+          <t>1.224252400</t>
+        </is>
+      </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>1.224252402</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>1.224252395</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>1.224252401</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>1.224252445</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>1.224252442</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>1.224252446</t>
+        </is>
+      </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>1.224252443</t>
+        </is>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>1.224252405</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>1.224252403</t>
+        </is>
+      </c>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>1.224252396</t>
+        </is>
+      </c>
+      <c r="DN17" t="inlineStr">
+        <is>
+          <t>1.224252394</t>
+        </is>
+      </c>
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>1.224252481</t>
+        </is>
+      </c>
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>1.224252406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Swedish Cup</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>IFK Lulea</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Varbergs BoIS</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>980</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>32984141</t>
+        </is>
+      </c>
+      <c r="CY18" t="n">
+        <v>406886</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>6225055</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB18" t="inlineStr">
+        <is>
+          <t>1.224268090</t>
+        </is>
+      </c>
+      <c r="DC18" t="inlineStr">
+        <is>
+          <t>1.224268093</t>
+        </is>
+      </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>1.224268095</t>
+        </is>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>1.224268088</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>1.224268094</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>1.224268138</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>1.224268135</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>1.224268139</t>
+        </is>
+      </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>1.224268136</t>
+        </is>
+      </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>1.224268098</t>
+        </is>
+      </c>
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>1.224268096</t>
+        </is>
+      </c>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>1.224268089</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>1.224268087</t>
+        </is>
+      </c>
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>1.224268174</t>
+        </is>
+      </c>
+      <c r="DP18" t="inlineStr">
+        <is>
+          <t>1.224268099</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
